--- a/US/data/CBS/NFIB/Current Inventory.xlsx
+++ b/US/data/CBS/NFIB/Current Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE13944D-CA26-4239-BB62-CF1FE2FD2C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB697BA-26FC-4201-8036-955A56FE4459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="459">
   <si>
     <t>Month/Year</t>
   </si>
@@ -37,39 +37,39 @@
     <t>1986/2/1</t>
   </si>
   <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
     <t>1986/10/1</t>
   </si>
   <si>
@@ -1363,13 +1363,40 @@
     <t>2021/8/1</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1802,63 +1829,63 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1949,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +1957,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1973,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1981,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +2021,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +2029,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,7 +2069,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2077,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2090,7 +2117,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2098,7 +2125,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2133,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +2149,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +2165,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2197,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2178,7 +2205,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2213,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,7 +2221,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,7 +2245,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,7 +2253,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,7 +2261,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2250,7 +2277,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2285,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2301,7 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2309,7 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2317,7 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,7 +2325,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2330,7 +2357,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2373,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2381,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,7 +2397,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2405,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2437,7 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2477,7 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2501,7 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2565,7 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +2589,7 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2597,7 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,7 +2605,7 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,7 +2613,7 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,7 +2653,7 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2658,7 +2685,7 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2693,7 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2709,7 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2725,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2773,7 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2789,7 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2797,7 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2805,7 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2813,7 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2821,7 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2829,7 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,7 +2853,7 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,7 +2885,7 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2893,7 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +2901,7 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2909,7 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +2917,7 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2933,7 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +2941,7 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2949,7 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2957,7 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2965,7 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +2973,7 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,7 +2981,7 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +3005,7 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +3013,7 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +3021,7 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3037,7 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3045,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3069,7 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3077,7 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3085,7 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3093,7 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3109,7 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3117,7 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3125,7 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3133,7 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,7 +3149,7 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3157,7 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,7 +3173,7 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3178,7 +3205,7 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3237,7 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3245,7 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3261,7 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,7 +3269,7 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3285,7 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3301,7 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3341,7 @@
         <v>204</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3357,7 @@
         <v>206</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3365,7 @@
         <v>207</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3389,7 @@
         <v>210</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3397,7 @@
         <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3429,7 @@
         <v>215</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3437,7 @@
         <v>216</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3453,7 @@
         <v>218</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3461,7 @@
         <v>219</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3469,7 @@
         <v>220</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3477,7 @@
         <v>221</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3501,7 @@
         <v>224</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,7 +3557,7 @@
         <v>231</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3573,7 @@
         <v>233</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3589,7 @@
         <v>235</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3597,7 @@
         <v>236</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3613,7 @@
         <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3621,7 @@
         <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3645,7 @@
         <v>242</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3626,7 +3653,7 @@
         <v>243</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,7 +3677,7 @@
         <v>246</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3685,7 @@
         <v>247</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3701,7 @@
         <v>249</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3709,7 @@
         <v>250</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3741,7 @@
         <v>254</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3722,7 +3749,7 @@
         <v>255</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3730,7 +3757,7 @@
         <v>256</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3738,7 +3765,7 @@
         <v>257</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3746,7 +3773,7 @@
         <v>258</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,7 +3781,7 @@
         <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3813,7 @@
         <v>263</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3845,7 @@
         <v>267</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3861,7 @@
         <v>269</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3901,7 @@
         <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3933,7 @@
         <v>278</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3941,7 @@
         <v>279</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3957,7 @@
         <v>281</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3965,7 @@
         <v>282</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3973,7 @@
         <v>283</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3981,7 @@
         <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3989,7 @@
         <v>285</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +3997,7 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +4005,7 @@
         <v>287</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +4013,7 @@
         <v>288</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4037,7 @@
         <v>291</v>
       </c>
       <c r="B279" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4077,7 @@
         <v>296</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4085,7 @@
         <v>297</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4101,7 @@
         <v>299</v>
       </c>
       <c r="B287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,7 +4109,7 @@
         <v>300</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4117,7 @@
         <v>301</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4098,7 +4125,7 @@
         <v>302</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4106,7 +4133,7 @@
         <v>303</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4149,7 @@
         <v>305</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4138,7 +4165,7 @@
         <v>307</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4154,7 +4181,7 @@
         <v>309</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,7 +4197,7 @@
         <v>311</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,7 +4229,7 @@
         <v>315</v>
       </c>
       <c r="B303" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4218,7 +4245,7 @@
         <v>317</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4226,7 +4253,7 @@
         <v>318</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +4261,7 @@
         <v>319</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4250,7 +4277,7 @@
         <v>321</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,7 +4285,7 @@
         <v>322</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4282,7 +4309,7 @@
         <v>325</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4290,7 +4317,7 @@
         <v>326</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4298,7 +4325,7 @@
         <v>327</v>
       </c>
       <c r="B315" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,7 +4381,7 @@
         <v>334</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4370,7 +4397,7 @@
         <v>336</v>
       </c>
       <c r="B324" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4378,7 +4405,7 @@
         <v>337</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4386,7 +4413,7 @@
         <v>338</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4394,7 +4421,7 @@
         <v>339</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4410,7 +4437,7 @@
         <v>341</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4418,7 +4445,7 @@
         <v>342</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4434,7 +4461,7 @@
         <v>344</v>
       </c>
       <c r="B332" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4466,7 +4493,7 @@
         <v>348</v>
       </c>
       <c r="B336" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4474,7 +4501,7 @@
         <v>349</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4490,7 +4517,7 @@
         <v>351</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4498,7 +4525,7 @@
         <v>352</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4506,7 +4533,7 @@
         <v>353</v>
       </c>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4530,7 +4557,7 @@
         <v>356</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4554,7 +4581,7 @@
         <v>359</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,7 +4605,7 @@
         <v>362</v>
       </c>
       <c r="B350" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4586,7 +4613,7 @@
         <v>363</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4602,7 +4629,7 @@
         <v>365</v>
       </c>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4618,7 +4645,7 @@
         <v>367</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +4677,7 @@
         <v>371</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4666,7 +4693,7 @@
         <v>373</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4682,7 +4709,7 @@
         <v>375</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4690,7 +4717,7 @@
         <v>376</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4698,7 +4725,7 @@
         <v>377</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4706,7 +4733,7 @@
         <v>378</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4714,7 +4741,7 @@
         <v>379</v>
       </c>
       <c r="B367" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4722,7 +4749,7 @@
         <v>380</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4746,7 +4773,7 @@
         <v>383</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4754,7 +4781,7 @@
         <v>384</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4762,7 +4789,7 @@
         <v>385</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4778,7 +4805,7 @@
         <v>387</v>
       </c>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4786,7 +4813,7 @@
         <v>388</v>
       </c>
       <c r="B376" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +4837,7 @@
         <v>391</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,7 +4861,7 @@
         <v>394</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4850,7 +4877,7 @@
         <v>396</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +4901,7 @@
         <v>399</v>
       </c>
       <c r="B387" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +4917,7 @@
         <v>401</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4898,7 +4925,7 @@
         <v>402</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4914,7 +4941,7 @@
         <v>404</v>
       </c>
       <c r="B392" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4922,7 +4949,7 @@
         <v>405</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,7 +4957,7 @@
         <v>406</v>
       </c>
       <c r="B394" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,7 +4981,7 @@
         <v>409</v>
       </c>
       <c r="B397" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -4962,7 +4989,7 @@
         <v>410</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -4970,7 +4997,7 @@
         <v>411</v>
       </c>
       <c r="B399" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4986,7 +5013,7 @@
         <v>413</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -4994,7 +5021,7 @@
         <v>414</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5010,7 +5037,7 @@
         <v>416</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5034,7 +5061,7 @@
         <v>419</v>
       </c>
       <c r="B407" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5042,7 +5069,7 @@
         <v>420</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5050,7 +5077,7 @@
         <v>421</v>
       </c>
       <c r="B409" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,7 +5085,7 @@
         <v>422</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5066,7 +5093,7 @@
         <v>423</v>
       </c>
       <c r="B411" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5074,7 +5101,7 @@
         <v>424</v>
       </c>
       <c r="B412" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5090,7 +5117,7 @@
         <v>426</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5098,7 +5125,7 @@
         <v>427</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5106,7 +5133,7 @@
         <v>428</v>
       </c>
       <c r="B416" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5162,7 +5189,7 @@
         <v>437</v>
       </c>
       <c r="B423" t="s">
-        <v>431</v>
+        <v>91</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5226,13 +5253,60 @@
         <v>449</v>
       </c>
       <c r="B431" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>451</v>
+      </c>
+      <c r="B432" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>453</v>
+      </c>
+      <c r="B433" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>454</v>
+      </c>
+      <c r="B434" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>456</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>457</v>
+      </c>
+      <c r="B436" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>458</v>
+      </c>
+      <c r="B437" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Current Inventory.xlsx
+++ b/US/data/CBS/NFIB/Current Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB697BA-26FC-4201-8036-955A56FE4459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBFBDA79-A1F4-4714-A810-CB1EF580F92C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="460">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1397,6 +1397,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5304,9 +5307,18 @@
         <v>455</v>
       </c>
     </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>459</v>
+      </c>
+      <c r="B438" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>